--- a/Spreadsheets/Data and Forecasting - Where to start.xlsx
+++ b/Spreadsheets/Data and Forecasting - Where to start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troym\Dropbox\Private\GitHub\FocusedObjective.Resources\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2CA73D-CA30-4630-9544-359B358DD2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF9BA2-42AE-46E0-976C-0D57D19E258A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5E62B465-A386-4FAD-8C94-DB9A65B74FDD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Forecasting" sheetId="2" r:id="rId2"/>
     <sheet name="Dependencies" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Measuring start rate and forecast how many similar things can be started in the future. Mesuring cycle time (how long) work took to complete. E.g. Cycle Time or Time in Process or Age.</t>
+  </si>
+  <si>
+    <t>Capture</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <autoFilter ref="A3:D12" xr:uid="{EE616739-50CF-4F53-97A1-4FECCAFF67DA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB787A2E-E008-42A3-811C-0197CA4F512E}" name="Do" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8BB4A6FC-B4B2-4380-97A0-F9884EE447D1}" name="Title" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8BB4A6FC-B4B2-4380-97A0-F9884EE447D1}" name="Capture" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{313949E5-4D43-420D-A314-BB39799C28ED}" name="Enables" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{29230843-AB1D-4487-8407-AD9ADDDB6B72}" name="Description" dataDxfId="4"/>
   </tableColumns>
@@ -527,7 +530,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
